--- a/Example benchmark.xlsx
+++ b/Example benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariusshekow/PycharmProjects/kubernetes-performance-benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F03A8B-43C1-5A42-8028-F87FF5BF2FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4637E73C-3D19-494F-BB05-62870712F763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21640" activeTab="2" xr2:uid="{AFB2BC95-66F1-C647-8C60-6E45C53D1E86}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21640" activeTab="3" xr2:uid="{AFB2BC95-66F1-C647-8C60-6E45C53D1E86}"/>
   </bookViews>
   <sheets>
     <sheet name="Results Disk (MBps)" sheetId="7" r:id="rId1"/>
@@ -22,31 +22,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Results CPU'!$A$1:$A$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Results Disk (IOPS)'!$A$1:$A$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Results Disk (MBps)'!$A$1:$A$27</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'Results CPU'!$A$2:$A$27</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Results CPU'!$B$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Results CPU'!$A$2:$A$27</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Results CPU'!$B$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Results CPU'!$B$2:$B$27</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Results CPU'!$C$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Results CPU'!$C$2:$C$27</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Results CPU'!$A$2:$A$27</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Results CPU'!$B$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Results CPU'!$B$2:$B$27</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Results CPU'!$C$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Results CPU'!$C$2:$C$27</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Results CPU'!$B$2:$B$27</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Results CPU'!$C$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Results CPU'!$C$2:$C$27</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Results CPU'!$A$2:$A$27</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Results CPU'!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Results CPU'!$B$2:$B$27</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Results CPU'!$C$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Results CPU'!$C$2:$C$27</definedName>
-    <definedName name="benchmark_results_1" localSheetId="2">'Results CPU'!$A$1:$E$27</definedName>
-    <definedName name="benchmark_results_1" localSheetId="1">'Results Disk (IOPS)'!$A$1:$E$27</definedName>
-    <definedName name="benchmark_results_1" localSheetId="0">'Results Disk (MBps)'!$A$1:$E$27</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -84,46 +61,8 @@
 </comments>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{E2CF0253-0433-E94D-A054-19F64D42841D}" name="benchmark_results" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/mariusshekow/PycharmProjects/kubernetes-performance-benchmark/benchmark_results.csv" thousands="'" tab="0" semicolon="1">
-      <textFields count="5">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="2" xr16:uid="{807CFE37-09D3-6940-9DD9-9D62E741BD6B}" name="benchmark_results1" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/mariusshekow/PycharmProjects/kubernetes-performance-benchmark/benchmark_results.csv" thousands="'" tab="0" semicolon="1">
-      <textFields count="5">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-  <connection id="3" xr16:uid="{4EAE88F2-F807-B845-A787-3E1A0F331054}" name="benchmark_results11" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/mariusshekow/PycharmProjects/kubernetes-performance-benchmark/benchmark_results.csv" thousands="'" tab="0" semicolon="1">
-      <textFields count="5">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="51">
   <si>
     <t>d4dsv5ephe</t>
   </si>
@@ -260,17 +199,33 @@
     <t>d3v2managed (normalized)</t>
   </si>
   <si>
-    <t>Hourly price (West Europe)</t>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Overall score</t>
+  </si>
+  <si>
+    <t>Total (normalized)</t>
+  </si>
+  <si>
+    <t>Monthly managed disk price (West Europe)</t>
+  </si>
+  <si>
+    <t>Hourly VM price (West Europe)</t>
+  </si>
+  <si>
+    <t>Price-Performance-Score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -285,12 +240,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -313,15 +262,71 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1687,6 +1692,288 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Meta-data'!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Price-Performance-Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Meta-data'!$A$3:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>d4dsv5ephe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>d3v2managed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Meta-data'!$K$3:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.9329741185994855E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6079938508839349E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F7D-EF4C-931B-848C1AD0FD4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1536325968"/>
+        <c:axId val="650454448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1536325968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="650454448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="650454448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1536325968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1807,6 +2094,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -3290,6 +3617,509 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3327,15 +4157,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1600200</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:colOff>2438400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3370,15 +4200,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3412,8 +4242,8 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1435100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
@@ -3447,22 +4277,134 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09ECAD7A-6D2F-5E8A-F4DE-7881463CD477}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Shekow, M.,SNL IT P&amp;P,Abt 1320, external, external" id="{B94A062C-740F-AD49-A34C-E4788EF61CF9}" userId="S::marius.shekow@deutschepost.de::cf1271df-4328-4ee9-97f9-34caaa97cef9" providerId="AD"/>
 </personList>
 </file>
 
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="benchmark_results_1" connectionId="3" xr16:uid="{8F407B67-D2BE-F942-965E-C6285D43C9A5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB481570-EDE4-834E-B0B2-2C85350CFAE6}" name="Table1" displayName="Table1" ref="A1:E28" totalsRowCount="1" headerRowDxfId="2">
+  <autoFilter ref="A1:E27" xr:uid="{DB481570-EDE4-834E-B0B2-2C85350CFAE6}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Flexible IO Tester - Disk Random Write, Block Size: 256KB (MB/s)"/>
+        <filter val="Flexible IO Tester - Disk Random Write, Block Size: 32KB (MB/s)"/>
+        <filter val="Flexible IO Tester - Disk Random Write, Block Size: 4KB (MB/s)"/>
+        <filter val="Flexible IO Tester - Disk Sequential Read, Block Size: 4MB (MB/s)"/>
+        <filter val="Flexible IO Tester - Disk Sequential Write, Block Size: 4MB (MB/s)"/>
+        <filter val="Sysbench - Disk Random Write, Block Size: 256KB (MiB/s (write))"/>
+        <filter val="Sysbench - Disk Random Write, Block Size: 32KB (MiB/s (write))"/>
+        <filter val="Sysbench - Disk Random Write, Block Size: 4KB (MiB/s (write))"/>
+        <filter val="Sysbench - Disk Sequential Read, Block Size: 4MB (MiB/s (read))"/>
+        <filter val="Sysbench - Disk Sequential Write, Block Size: 4MB (MiB/s (write))"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7EF29625-9C61-6449-AFA1-39B99E59733E}" name="Tool name + config + result unit" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{2C62928D-6B17-7B48-B23E-C2133D40C25D}" name="d4dsv5ephe" totalsRowFunction="average"/>
+    <tableColumn id="3" xr3:uid="{D66619CE-2F05-C743-9987-88729E3D08BC}" name="d3v2managed" totalsRowFunction="average"/>
+    <tableColumn id="4" xr3:uid="{74DAE395-E515-DA4C-AF63-CB03D10730E3}" name="d4dsv5ephe (normalized)"/>
+    <tableColumn id="5" xr3:uid="{F92530FB-4B05-F247-BF4B-5F13C4DB6732}" name="d3v2managed (normalized)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="benchmark_results_1" connectionId="2" xr16:uid="{FD280E09-A652-3443-B156-281F9B17D0B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2DC0AE0F-3498-A14A-A033-06D98F677F2A}" name="Table2" displayName="Table2" ref="A1:E28" totalsRowCount="1" headerRowDxfId="1">
+  <autoFilter ref="A1:E27" xr:uid="{2DC0AE0F-3498-A14A-A033-06D98F677F2A}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Flexible IO Tester - Disk Random Write, Block Size: 256KB (IOPS)"/>
+        <filter val="Flexible IO Tester - Disk Random Write, Block Size: 32KB (IOPS)"/>
+        <filter val="Flexible IO Tester - Disk Random Write, Block Size: 4KB (IOPS)"/>
+        <filter val="Flexible IO Tester - Disk Sequential Read, Block Size: 4MB (IOPS)"/>
+        <filter val="Flexible IO Tester - Disk Sequential Write, Block Size: 4MB (IOPS)"/>
+        <filter val="Sysbench - Disk Random Write, Block Size: 256KB (IOPS (write))"/>
+        <filter val="Sysbench - Disk Random Write, Block Size: 32KB (IOPS (write))"/>
+        <filter val="Sysbench - Disk Random Write, Block Size: 4KB (IOPS (write))"/>
+        <filter val="Sysbench - Disk Sequential Read, Block Size: 4MB (IOPS (read))"/>
+        <filter val="Sysbench - Disk Sequential Write, Block Size: 4MB (IOPS (write))"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7F3439BC-F517-6F47-9A9A-CF1965ECC419}" name="Tool name + config + result unit" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{AB098C27-94EB-134D-AE4A-D3249D03B17F}" name="d4dsv5ephe" totalsRowFunction="average"/>
+    <tableColumn id="3" xr3:uid="{3EE59566-90D1-6E43-9ED6-469F86E576FA}" name="d3v2managed" totalsRowFunction="average"/>
+    <tableColumn id="4" xr3:uid="{9DA3DBC6-ED54-6747-8A84-C942B7045776}" name="d4dsv5ephe (normalized)"/>
+    <tableColumn id="5" xr3:uid="{4AD7B248-7739-7941-9614-D35D7198FA2F}" name="d3v2managed (normalized)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="benchmark_results_1" connectionId="1" xr16:uid="{201DA5F7-10BD-A048-BBD3-69C6605C52A3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A33021F7-BFCB-8044-862A-DA3CC620EDEF}" name="Table3" displayName="Table3" ref="A1:E28" totalsRowCount="1" headerRowDxfId="0">
+  <autoFilter ref="A1:E27" xr:uid="{A33021F7-BFCB-8044-862A-DA3CC620EDEF}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="7-Zip Compression - Test: Compression Rating (MIPS)"/>
+        <filter val="7-Zip Compression - Test: Decompression Rating (MIPS)"/>
+        <filter val="OpenSSL - Multi core, Bytes: 1024 (byte/s)"/>
+        <filter val="OpenSSL - Single core, Bytes: 1024 (byte/s)"/>
+        <filter val="Sysbench - Customized Sysbench CPU multi core (Events/sec)"/>
+        <filter val="Sysbench - Customized Sysbench CPU single core (Events/sec)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{E2F4C0B5-292C-A542-8F73-29FA4C2BF12A}" name="Tool name + config + result unit" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{7BDA1D83-3185-C745-8D45-F627AC5A6E9A}" name="d4dsv5ephe"/>
+    <tableColumn id="3" xr3:uid="{5B16AC15-0492-854B-BA40-DF65896E095C}" name="d3v2managed"/>
+    <tableColumn id="4" xr3:uid="{942A764D-EEB5-4244-AB57-325B795473CD}" name="d4dsv5ephe (normalized)" totalsRowFunction="average"/>
+    <tableColumn id="5" xr3:uid="{7DF94ADB-15EC-D140-9D41-81FC41B59DC4}" name="d3v2managed (normalized)" totalsRowFunction="average"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3770,20 +4712,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3695CD7A-EB44-C944-8B2F-E3DC64AF792A}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -4245,45 +5186,57 @@
         <v>100</v>
       </c>
     </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28">
+        <f>SUBTOTAL(101,Table1[d4dsv5ephe])</f>
+        <v>313.44499999999999</v>
+      </c>
+      <c r="C28">
+        <f>SUBTOTAL(101,Table1[d3v2managed])</f>
+        <v>131.80440000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29">
+        <f>Table1[[#Totals],[d4dsv5ephe]]/MIN(Table1[[#Totals],[d4dsv5ephe]:[d3v2managed]])</f>
+        <v>2.3781072559034446</v>
+      </c>
+      <c r="C29">
+        <f>Table1[[#Totals],[d3v2managed]]/MIN(Table1[[#Totals],[d4dsv5ephe]:[d3v2managed]])</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A27" xr:uid="{511E1411-C48F-D64A-B058-5919424D83D0}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Flexible IO Tester - Disk Random Write, Block Size: 256KB (MB/s)"/>
-        <filter val="Flexible IO Tester - Disk Random Write, Block Size: 32KB (MB/s)"/>
-        <filter val="Flexible IO Tester - Disk Random Write, Block Size: 4KB (MB/s)"/>
-        <filter val="Flexible IO Tester - Disk Sequential Read, Block Size: 4MB (MB/s)"/>
-        <filter val="Flexible IO Tester - Disk Sequential Write, Block Size: 4MB (MB/s)"/>
-        <filter val="Sysbench - Disk Random Write, Block Size: 256KB (MiB/s (write))"/>
-        <filter val="Sysbench - Disk Random Write, Block Size: 32KB (MiB/s (write))"/>
-        <filter val="Sysbench - Disk Random Write, Block Size: 4KB (MiB/s (write))"/>
-        <filter val="Sysbench - Disk Sequential Read, Block Size: 4MB (MiB/s (read))"/>
-        <filter val="Sysbench - Disk Sequential Write, Block Size: 4MB (MiB/s (write))"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6075E8CA-9562-DF45-9152-BD3FABA54249}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -4745,45 +5698,57 @@
         <v>100</v>
       </c>
     </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28">
+        <f>SUBTOTAL(101,Table2[d4dsv5ephe])</f>
+        <v>5162.6689999999999</v>
+      </c>
+      <c r="C28">
+        <f>SUBTOTAL(101,Table2[d3v2managed])</f>
+        <v>367.14399999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29">
+        <f>Table2[[#Totals],[d4dsv5ephe]]/MIN(Table2[[#Totals],[d4dsv5ephe]:[d3v2managed]])</f>
+        <v>14.061700586146037</v>
+      </c>
+      <c r="C29">
+        <f>Table2[[#Totals],[d3v2managed]]/MIN(Table2[[#Totals],[d4dsv5ephe]:[d3v2managed]])</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A27" xr:uid="{511E1411-C48F-D64A-B058-5919424D83D0}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Flexible IO Tester - Disk Random Write, Block Size: 256KB (IOPS)"/>
-        <filter val="Flexible IO Tester - Disk Random Write, Block Size: 32KB (IOPS)"/>
-        <filter val="Flexible IO Tester - Disk Random Write, Block Size: 4KB (IOPS)"/>
-        <filter val="Flexible IO Tester - Disk Sequential Read, Block Size: 4MB (IOPS)"/>
-        <filter val="Flexible IO Tester - Disk Sequential Write, Block Size: 4MB (IOPS)"/>
-        <filter val="Sysbench - Disk Random Write, Block Size: 256KB (IOPS (write))"/>
-        <filter val="Sysbench - Disk Random Write, Block Size: 32KB (IOPS (write))"/>
-        <filter val="Sysbench - Disk Random Write, Block Size: 4KB (IOPS (write))"/>
-        <filter val="Sysbench - Disk Sequential Read, Block Size: 4MB (IOPS (read))"/>
-        <filter val="Sysbench - Disk Sequential Write, Block Size: 4MB (IOPS (write))"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{511E1411-C48F-D64A-B058-5919424D83D0}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -5245,31 +6210,48 @@
         <v>100</v>
       </c>
     </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28">
+        <f>SUBTOTAL(101,Table3[d4dsv5ephe (normalized)])</f>
+        <v>165.98500000000001</v>
+      </c>
+      <c r="E28">
+        <f>SUBTOTAL(101,Table3[d3v2managed (normalized)])</f>
+        <v>105.38666666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29">
+        <f>Table3[[#Totals],[d4dsv5ephe (normalized)]]/MIN(Table3[[#Totals],[d4dsv5ephe (normalized)]:[d3v2managed (normalized)]])</f>
+        <v>1.575009488866397</v>
+      </c>
+      <c r="E29">
+        <f>Table3[[#Totals],[d3v2managed (normalized)]]/MIN(Table3[[#Totals],[d4dsv5ephe (normalized)]:[d3v2managed (normalized)]])</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A27" xr:uid="{511E1411-C48F-D64A-B058-5919424D83D0}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="7-Zip Compression - Test: Compression Rating (MIPS)"/>
-        <filter val="7-Zip Compression - Test: Decompression Rating (MIPS)"/>
-        <filter val="OpenSSL - Multi core, Bytes: 1024 (byte/s)"/>
-        <filter val="OpenSSL - Single core, Bytes: 1024 (byte/s)"/>
-        <filter val="Sysbench - Customized Sysbench CPU multi core (Events/sec)"/>
-        <filter val="Sysbench - Customized Sysbench CPU single core (Events/sec)"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32E1507-3665-9349-831E-2B51F08BBC5C}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5279,15 +6261,21 @@
     <col min="5" max="5" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H1"/>
+      <c r="K1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -5307,16 +6295,25 @@
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -5339,17 +6336,28 @@
         <v>0.27200000000000002</v>
       </c>
       <c r="H3" s="2">
-        <f>G3*$M$3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <f>G3*$N$3+H3</f>
         <v>198.56</v>
       </c>
-      <c r="L3" t="s">
+      <c r="J3">
+        <f>0.5*('Results Disk (MBps)'!B29+'Results Disk (IOPS)'!B29)+'Results CPU'!D29</f>
+        <v>9.794913409891139</v>
+      </c>
+      <c r="K3" s="3">
+        <f>J3/I3</f>
+        <v>4.9329741185994855E-2</v>
+      </c>
+      <c r="M3" t="s">
         <v>10</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>730</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -5372,19 +6380,31 @@
         <v>0.27200000000000002</v>
       </c>
       <c r="H4" s="2">
-        <f>G4*$M$3</f>
-        <v>198.56</v>
-      </c>
-      <c r="L4" t="s">
+        <v>9.6</v>
+      </c>
+      <c r="I4" s="2">
+        <f>G4*$N$3+H4</f>
+        <v>208.16</v>
+      </c>
+      <c r="J4">
+        <f>0.5*('Results Disk (MBps)'!C29+'Results Disk (IOPS)'!C29)+'Results CPU'!E29</f>
+        <v>2</v>
+      </c>
+      <c r="K4" s="3">
+        <f>J4/I4</f>
+        <v>9.6079938508839349E-3</v>
+      </c>
+      <c r="M4" t="s">
         <v>15</v>
       </c>
-      <c r="M4">
-        <f>M3/24</f>
+      <c r="N4">
+        <f>N3/24</f>
         <v>30.416666666666668</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Example benchmark.xlsx
+++ b/Example benchmark.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariusshekow/PycharmProjects/kubernetes-performance-benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4637E73C-3D19-494F-BB05-62870712F763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F90CC1-C3DB-1E47-AE88-FD943946AB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21640" activeTab="3" xr2:uid="{AFB2BC95-66F1-C647-8C60-6E45C53D1E86}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21640" xr2:uid="{AFB2BC95-66F1-C647-8C60-6E45C53D1E86}"/>
   </bookViews>
   <sheets>
     <sheet name="Results Disk (MBps)" sheetId="7" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="54">
   <si>
     <t>d4dsv5ephe</t>
   </si>
@@ -215,6 +215,15 @@
   </si>
   <si>
     <t>Price-Performance-Score</t>
+  </si>
+  <si>
+    <t>Standard_D4ds_v5 with Ephemeral OS disk</t>
+  </si>
+  <si>
+    <t>Standard_D3_v2 with managed disk</t>
+  </si>
+  <si>
+    <t>Other meta-data</t>
   </si>
 </sst>
 </file>
@@ -1769,14 +1778,14 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Meta-data'!$A$3:$A$4</c:f>
+              <c:f>'Meta-data'!$L$3:$L$4</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>d4dsv5ephe</c:v>
+                  <c:v>Standard_D4ds_v5 with Ephemeral OS disk</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>d3v2managed</c:v>
+                  <c:v>Standard_D3_v2 with managed disk</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4714,7 +4723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3695CD7A-EB44-C944-8B2F-E3DC64AF792A}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -6248,10 +6257,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32E1507-3665-9349-831E-2B51F08BBC5C}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6265,17 +6274,18 @@
     <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G1"/>
       <c r="H1"/>
       <c r="K1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -6312,8 +6322,12 @@
       <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -6339,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <f>G3*$N$3+H3</f>
+        <f>G3*$O$3+H3</f>
         <v>198.56</v>
       </c>
       <c r="J3">
@@ -6350,14 +6364,17 @@
         <f>J3/I3</f>
         <v>4.9329741185994855E-2</v>
       </c>
-      <c r="M3" t="s">
+      <c r="L3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" t="s">
         <v>10</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>730</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -6383,7 +6400,7 @@
         <v>9.6</v>
       </c>
       <c r="I4" s="2">
-        <f>G4*$N$3+H4</f>
+        <f>G4*$O$3+H4</f>
         <v>208.16</v>
       </c>
       <c r="J4">
@@ -6394,11 +6411,14 @@
         <f>J4/I4</f>
         <v>9.6079938508839349E-3</v>
       </c>
-      <c r="M4" t="s">
+      <c r="L4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" t="s">
         <v>15</v>
       </c>
-      <c r="N4">
-        <f>N3/24</f>
+      <c r="O4">
+        <f>O3/24</f>
         <v>30.416666666666668</v>
       </c>
     </row>
